--- a/Profils/DonnéesPDI-90_EnR-SaisonHiver.xlsx
+++ b/Profils/DonnéesPDI-90_EnR-SaisonHiver.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bureau\Centrale\G3\PDI\Boucle de chaleur\Program\Profils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730E4D21-8C62-4341-9C85-8EE31DDE6EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDCE9CB-EBE3-4BA9-A449-3E0B9B8B8C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
